--- a/Companies/Refineries/Bharat Petroleum Corporation Ltd/Pruned_Excel/6_Dec19_Dec20.xlsx
+++ b/Companies/Refineries/Bharat Petroleum Corporation Ltd/Pruned_Excel/6_Dec19_Dec20.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Dec '19</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '20</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '20</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '20</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Dec '20</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '20</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '20</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '20</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '19</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>74,732.79</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>68,991.44</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38,785.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>50,146.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>66,731.39</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>50,146.36</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>38,785.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>68,991.44</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>74,732.79</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>74732.78999999999</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>38785.05</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>59877.406</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>74,732.79</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>68,991.44</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38,785.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>50,146.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>66,731.39</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>50,146.36</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>38,785.05</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>68,991.44</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>74,732.79</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>74732.78999999999</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>38785.05</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>59877.406</v>
       </c>
     </row>
     <row r="4"/>
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>29,286.45</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>27,889.00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9,238.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>14,510.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>18,801.99</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>14,510.95</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9,238.46</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>27,889.00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>29,286.45</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>29286.45</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>9238.459999999999</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>19945.37</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>34,334.95</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>37,545.27</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20,956.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28,077.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>38,741.78</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>28,077.87</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>20,956.51</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>37,545.27</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>34,334.95</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>38741.78</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>20956.51</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>31931.276</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>3,288.71</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-2,509.99</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>427.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-1,351.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>81.02</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>-1,351.94</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>427.29</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>-2,509.99</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3,288.71</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>3288.71</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>-2509.99</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>-12.98199999999996</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>893.40</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>930.79</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>902.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1,571.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>869.46</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1,571.95</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>902.92</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>930.79</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>893.40</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>1571.95</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>869.46</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>1033.704</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>973.11</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>947.42</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>995.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>988.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>993.63</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>988.81</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>995.85</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>947.42</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>973.11</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>995.85</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>947.42</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>979.7639999999999</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>4,225.90</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>5,755.20</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3,344.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3,486.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>3,931.36</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3,486.36</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3,344.04</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5,755.20</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4,225.90</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>5755.2</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>3344.04</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>4148.572</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>1,730.27</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-1,566.25</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2,919.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2,862.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>3,312.15</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2,862.36</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2,919.98</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>-1,566.25</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1,730.27</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>3312.15</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>-1566.25</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>1851.702</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>514.82</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1,156.76</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>593.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>572.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>1,514.55</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>572.58</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>593.31</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1,156.76</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>514.82</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>1514.55</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>514.8200000000001</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>870.4040000000001</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>2,245.09</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>-409.49</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3,513.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3,434.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>4,826.70</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>3,434.94</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3,513.29</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-409.49</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2,245.09</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>4826.7</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>-409.49</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>2722.106</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>512.08</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>578.55</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>587.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>250.99</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>12.64</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>587.12</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>578.55</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>512.08</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>587.12</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>388.276</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>1,733.01</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-988.04</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2,926.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3,422.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>4,575.71</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>3,422.30</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2,926.17</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>-988.04</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1,733.01</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>4575.71</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>-988.04</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>2333.83</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-1,080.83</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-124.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>-419.49</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>-124.55</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>-1,080.83</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>-124.55</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>-1080.83</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>-541.6233333333333</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>1,733.01</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-2,068.87</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2,926.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3,297.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>4,156.22</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>3,297.75</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2,926.17</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>-2,068.87</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1,733.01</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>4156.22</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>-2068.87</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>2008.856</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>472.38</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-707.86</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>850.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1,050.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>1,378.60</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1,050.00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>850.00</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>-707.86</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>472.38</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>1378.6</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>-707.86</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>608.624</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>1,260.63</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-1,361.01</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2,076.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2,247.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>2,777.62</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2,247.75</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2,076.17</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>-1,361.01</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1,260.63</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>2777.62</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>-1361.01</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>1400.232</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>1,260.63</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-1,361.01</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2,076.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2,247.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>2,777.62</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2,247.75</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2,076.17</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>-1,361.01</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1,260.63</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>2777.62</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>-1361.01</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>1400.232</v>
       </c>
     </row>
     <row r="22">
@@ -1272,15 +1087,6 @@
         <is>
           <t>1,966.88</t>
         </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>1966.88</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>1966.88</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>1966.88</v>
       </c>
     </row>
     <row r="23"/>
@@ -1299,37 +1105,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>-6.92</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>14.12</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>11.43</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>10.56</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>-6.92</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>14.12</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>-6.92</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>7.12</v>
       </c>
     </row>
     <row r="26">
@@ -1340,37 +1137,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>-6.92</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>14.06</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>11.43</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>10.56</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>-6.92</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>-6.92</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>7.108</v>
       </c>
     </row>
     <row r="27"/>
@@ -1389,37 +1177,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>-6.92</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>14.12</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>11.43</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>10.56</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>-6.92</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>14.12</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>-6.92</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>7.12</v>
       </c>
     </row>
     <row r="30">
@@ -1430,37 +1209,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>-6.92</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>14.06</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>11.43</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>10.56</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>-6.92</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>-6.92</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>7.108</v>
       </c>
     </row>
     <row r="31"/>
